--- a/artfynd/A 19205-2024 artfynd.xlsx
+++ b/artfynd/A 19205-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>129425710</v>
       </c>
       <c r="B2" t="n">
-        <v>56917</v>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 19205-2024 artfynd.xlsx
+++ b/artfynd/A 19205-2024 artfynd.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Per Eriksson, Lena Öling</t>
+          <t>Lena Öling, Per Eriksson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 19205-2024 artfynd.xlsx
+++ b/artfynd/A 19205-2024 artfynd.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lena Öling, Per Eriksson</t>
+          <t>Per Eriksson, Lena Öling</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
